--- a/Impacto Econômico do Milho, Soja e Pecuária no Desmatamento no Pará/Produção de Milho(R$)km + Produção Rebanho Bovino(R$)km + Produção de Soja(R$) + desmatamento.xlsx
+++ b/Impacto Econômico do Milho, Soja e Pecuária no Desmatamento no Pará/Produção de Milho(R$)km + Produção Rebanho Bovino(R$)km + Produção de Soja(R$) + desmatamento.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2290623919464598</v>
+        <v>0.2300186582838494</v>
       </c>
       <c r="E2" t="n">
-        <v>7.072215180050185</v>
+        <v>7.101739543477936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00150586381347389</v>
+        <v>0.001512150340307394</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2220645348485394</v>
+        <v>0.222991587245047</v>
       </c>
       <c r="E3" t="n">
-        <v>8.196377251350482</v>
+        <v>8.230594652065671</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00130601528380847</v>
+        <v>0.001311467503360575</v>
       </c>
     </row>
     <row r="4">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2000189360963008</v>
+        <v>0.2008539547731077</v>
       </c>
       <c r="E4" t="n">
-        <v>8.815276845138847</v>
+        <v>8.852077964825687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001424807014333394</v>
+        <v>0.001430755153499783</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2167336017514379</v>
+        <v>0.2176383991115586</v>
       </c>
       <c r="E5" t="n">
-        <v>9.727850573488157</v>
+        <v>9.768461413004566</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006680830555918636</v>
+        <v>0.006708721006691201</v>
       </c>
     </row>
     <row r="6">
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3061667294050382</v>
+        <v>0.3074448830751838</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67426183872907</v>
+        <v>10.71882365957675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02775844712070841</v>
+        <v>0.02787433025776194</v>
       </c>
     </row>
     <row r="7">
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2836849957085151</v>
+        <v>0.2848692949272273</v>
       </c>
       <c r="E7" t="n">
-        <v>13.90918430900333</v>
+        <v>13.9672509546112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06864981567684096</v>
+        <v>0.0689364079333957</v>
       </c>
     </row>
     <row r="8">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2292412064481024</v>
+        <v>0.2301982192820561</v>
       </c>
       <c r="E8" t="n">
-        <v>14.41444359459592</v>
+        <v>14.47461954519428</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1189054748601276</v>
+        <v>0.1194018693226749</v>
       </c>
     </row>
     <row r="9">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2279081942084092</v>
+        <v>0.2288596421186697</v>
       </c>
       <c r="E9" t="n">
-        <v>13.96598610956502</v>
+        <v>14.02428988554301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08485864730216482</v>
+        <v>0.08521290653765921</v>
       </c>
     </row>
     <row r="10">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1057664978470095</v>
+        <v>0.1062080410469003</v>
       </c>
       <c r="E10" t="n">
-        <v>12.25217359732102</v>
+        <v>12.30332272342335</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03291351519565819</v>
+        <v>0.03305091918572096</v>
       </c>
     </row>
     <row r="11">
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1070922748913763</v>
+        <v>0.1075393528102039</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9597487001906</v>
+        <v>13.01385173874577</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06108388214071202</v>
+        <v>0.06133888890874527</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1096731963456842</v>
+        <v>0.1101310488324591</v>
       </c>
       <c r="E12" t="n">
-        <v>13.45119575283213</v>
+        <v>13.50735043447484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06130479510776024</v>
+        <v>0.06156072412074207</v>
       </c>
     </row>
     <row r="13">
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.09093133797656133</v>
+        <v>0.09131094886240723</v>
       </c>
       <c r="E13" t="n">
-        <v>14.07104893252243</v>
+        <v>14.12979131407006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05452284557833046</v>
+        <v>0.05475046199935095</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2167620458514672</v>
+        <v>0.2176669619571188</v>
       </c>
       <c r="E14" t="n">
-        <v>14.57314422807221</v>
+        <v>14.63398270590704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1689504096567239</v>
+        <v>0.1696557266145625</v>
       </c>
     </row>
     <row r="15">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2110438622937427</v>
+        <v>0.2119249067092369</v>
       </c>
       <c r="E15" t="n">
-        <v>14.84645551322273</v>
+        <v>14.90843498316629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2412288647564156</v>
+        <v>0.2422359224449915</v>
       </c>
     </row>
     <row r="16">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2227039054285122</v>
+        <v>0.223633627004179</v>
       </c>
       <c r="E16" t="n">
-        <v>15.29235786682435</v>
+        <v>15.35619884448591</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3041067756414544</v>
+        <v>0.3053763296264926</v>
       </c>
     </row>
     <row r="17">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1802776466792893</v>
+        <v>0.1810302514322489</v>
       </c>
       <c r="E17" t="n">
-        <v>15.88328188358352</v>
+        <v>15.94958979062786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3827069325932935</v>
+        <v>0.3843046185059165</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2127854441957589</v>
+        <v>0.2136737591899481</v>
       </c>
       <c r="E18" t="n">
-        <v>16.16857164402598</v>
+        <v>16.23607054969736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4940042825829839</v>
+        <v>0.4960666013335486</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2323160969779649</v>
+        <v>0.2332859465516377</v>
       </c>
       <c r="E19" t="n">
-        <v>16.33209127772132</v>
+        <v>16.40027282850033</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7786161683698709</v>
+        <v>0.7818666558254169</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2095693773981687</v>
+        <v>0.2104442662843391</v>
       </c>
       <c r="E20" t="n">
-        <v>16.41783341293182</v>
+        <v>16.48637291124163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7326356130311568</v>
+        <v>0.7356941455486997</v>
       </c>
     </row>
     <row r="21">
@@ -896,13 +896,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2101126205874776</v>
+        <v>0.2109897773499699</v>
       </c>
       <c r="E21" t="n">
-        <v>16.45095755585161</v>
+        <v>16.51963533745865</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7864642340013069</v>
+        <v>0.7897474847617028</v>
       </c>
     </row>
     <row r="22">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.211761430609176</v>
+        <v>0.2126454706557688</v>
       </c>
       <c r="E22" t="n">
-        <v>16.7098868504494</v>
+        <v>16.77964558369623</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8613394463841356</v>
+        <v>0.8649352785530209</v>
       </c>
     </row>
     <row r="23">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2768646765800862</v>
+        <v>0.2780205030253442</v>
       </c>
       <c r="E23" t="n">
-        <v>17.75692736268862</v>
+        <v>17.83105717399513</v>
       </c>
       <c r="F23" t="n">
-        <v>1.139953216008655</v>
+        <v>1.144712176558246</v>
       </c>
     </row>
   </sheetData>
